--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/6_Amasya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/6_Amasya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8559624-1006-4EE0-BD6B-CCDA2A8F60ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ED786F-5329-4ED9-976D-036868372BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8439BBA7-0718-4558-AD8D-FB7584280275}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BABA0984-289B-4DCD-92A7-4211B198198F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D2BB8EBE-7DBB-4612-912E-40204A6845D3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E6F3075E-2F10-4E4D-BA3F-54E5E0B6E66F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{000E90B0-7F20-46C4-B052-6C74D5B0976D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{227C0E76-209A-485A-A961-7E6699FFA8B5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{EA7275FF-8C99-4C82-B2EE-89E6C54ACB9D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{FD9D4472-3890-4789-BCA2-81B52BDEF077}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{ADB859B8-A433-4A5A-916E-E9941565EBDC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{C15FFE6E-B81C-435D-9253-23BC26413060}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC2834-6198-4A02-95D2-CB20FE2E72A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7F8A5-170C-4A40-8B1C-5BC6D61DC0AF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2431,18 +2431,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{035CB573-AB40-4520-A0B3-C050256107F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8F056D4C-163D-4F4D-A1C2-5462DF592F97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{44DC1397-17FF-49B7-AF85-FD30180B1D33}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F59BA011-667C-43D0-AD02-B58978A75FAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{06A1E405-9A9F-47B9-B557-4841B473C541}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{453684F1-29B6-4F05-8958-45AC23C0B5D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A18A0B1F-FEF3-45A7-A421-8C16D1BED846}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{54033D3A-2571-43C4-A83F-99FF85053067}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9728094A-FDE7-4112-BDF5-404055B357C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{905C1BEA-3856-486E-BFBE-F38F2AB6EBA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{868D66DF-44B6-4FC5-9445-C59F55B45228}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{128E9120-8DDF-4E0B-8FDE-512E91D2E4D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{24182B89-5D4E-4F49-9020-B2C879B62C0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7636CAAA-6B6E-4C3D-8607-485634F36156}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3B2248EF-42B7-431D-99EF-7D592AC6EC07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{900547C3-4FB1-42C7-9DE6-ABA53DC84F85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{05FF0DEE-B4AD-49DF-B628-B1B98A6DC43A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9EFEE85A-FDD5-46F0-ABA3-D59A01BC76AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4DC67426-BB81-4FD3-BFFD-BF3603DF48B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2FDE83A7-8F87-44E3-ACA1-F2ADAD021053}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DCB3732A-DC5F-413A-8769-8D6ED19CA433}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C8ADBCD5-9925-46C9-AD3B-440420B8B28A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{004F97F9-491E-4C10-8B62-C7E3E5E616F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE41DE77-E558-4B85-9FFA-A1001606402E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641A73B9-7213-4862-9538-65CE32BE2A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE23D2C-3C2C-464A-A0AE-6CA9BCD06454}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3622,18 +3622,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AAA6B1C1-F4B3-4467-A3B8-03A13B58002C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0114BEB0-FF2E-4EE2-8388-23389C08BEC8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19696869-E984-439F-B6F7-0A7B5D70F9A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2B2AA54-2B68-4452-BC7C-1DAD60C764DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{893C14D6-3A8C-4DC2-87C6-4836568D04CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C41EFD3-F7A2-4099-B458-8ECD37D21E21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ACE69C3C-1AE1-45B7-87B6-1CFDDE5DD4E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1C0AB99-A0A0-48E6-B711-F7C1D8D7DC4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1B86FCB5-D02C-48FE-9EA7-ABD5E1F4FB7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{47D7B2BD-C3F7-4F76-BCCE-CCAA09F59999}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2240DDF-23EF-4C9E-A7B9-CAB09288D50E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3033227C-1AC9-40D8-B6B0-334ECD7918AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E59123A6-FA55-4448-8C2E-9A863DFA123C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FDB97B29-1684-4C86-9565-71E09ABCB33C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57715569-E44D-46F4-B331-80DF0ACF4E98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{836C37D3-334F-4BAA-B68C-B4E79202B5FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8AA9D693-39A4-4929-8B72-2B61C49ED0A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0153A38C-6B3F-4CB8-A151-90DBB94705A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{346E43D4-BC24-4E4E-8FFD-6AA910D72DF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A1117B09-430E-4BD8-AB35-FD974EFB7FB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CD5E88B8-1D01-41E5-8A6C-274BAF42876E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4BBD3CBE-0B91-4DD7-A806-76356BF55ECB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1C97DA9C-3380-4E61-AEAD-CBCA0FE09AD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B1CE8FEE-EAEA-47F2-AF26-353BCC879D8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3646,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915561E5-AA71-43D5-9965-3F7577F3A098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F961FCEB-850B-4380-BCB5-77B31A0C1676}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4809,18 +4809,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{361F26FC-F5FB-4BDD-94B7-7963E21024AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D47CD435-808F-46C9-8CF5-4DA82FE1F3D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B1A9D492-2AA4-42D5-803E-DA932A5E57B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3520501F-06AB-453D-8B23-F4F7F837F4FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{03320BC2-90BD-4292-A832-985BF8957B6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17107B7F-E547-4C8C-B36F-B17056B43411}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{58EAA961-33C4-48E4-BEB8-55C5369301F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F5E02F73-8C01-4914-A2E3-E7A491A77482}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E31B821D-1B15-4B27-A54A-5029CA9E4901}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{91A1C5FE-0B28-4BD3-A439-F9BC74173C14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8548303F-B09A-43BA-8459-9ABCCBDA5743}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F56BEA81-A3E7-4799-B53A-B29C1374E370}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2A376D6F-3FED-4A6E-A2AF-5BC735FB12F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A819403A-2731-4A54-8EF5-C1580877C731}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{61A9B7FD-49B7-4FAC-B28B-F2E46150FBA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25839FBA-EF1F-47BE-851A-E0E703852D1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF0A0128-9F78-428A-8830-CE1C00546E86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD97FBC8-B98C-41E7-BA8C-455871CD8917}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BABBD8E0-9F30-4024-B725-EE145295BB13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0E979940-61E2-4FF8-B99A-D0304A939FE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF644647-1ABA-4992-AFDE-83CAE060BF13}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AF77DDD5-335D-45D1-943F-EDD509E52D72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C525613-8262-48A4-BCCB-D2E4289988A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2CB417BE-AB0A-4F5A-9B0F-1C6B6C662960}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4833,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DE41A0-E8A6-46DB-BD42-1EFC61F5E647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10DF16B-FEDB-4E39-B024-E00CE683EAAB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5990,18 +5990,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D609D8E5-A6C6-49A0-AF06-BC3226855828}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E947DA1B-E6EC-462B-82F6-0EA2165B2648}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5235034-DCC3-4166-B1F2-0FDE97B390BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5DA28D46-54AF-424B-A640-9845FA640733}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC8F62D7-9CDF-4A37-8766-EFEA7A22A7AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE6E1218-304C-48C3-B97B-E8299F63FC26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{343F7F0A-09A7-4F54-9906-1A6585CE5AD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B2F212CB-06AF-4BE2-BBD2-AA75BFC3E6A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45388692-DF18-48E8-9893-E5CC9E3EDAF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99F5B102-3CEF-4B55-B0DE-3D4D1F7DBDAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F381B75-5FE2-4260-951F-54A2C4F528AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2F8C926E-3E2A-4623-8D7E-39943D522E75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{55254F75-28A4-46FC-8E33-ABB564F579BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB20FAF7-B63E-49B9-9359-863A63E411AB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{97053D4C-C69A-4FA9-9BCC-DCFA95213C12}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{221102E8-8F40-4E7C-9DD8-F4B59623B1DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C17A2C66-6CE1-47D2-9735-1B3200A64A64}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8B2B6665-36F9-4A97-B822-E78F37D1EE77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B814912F-F601-4800-9316-32A763BFC769}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{546171D9-B51F-4D90-BE9A-78F5EF36CB39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0CC47047-862E-4DFC-9C2F-7E58C8E8C946}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{68A48E31-B929-49B8-A9C8-8408908A0C68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0DC06E02-BC92-4513-8255-85684EF686C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1025BC91-C8E1-4C6E-A1F2-E4ABFFFAF327}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6014,7 +6014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10F44C-D3C2-4932-8E2F-A209D904150B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF13F74-6E5D-4463-91A1-2F23756EA4EB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7211,18 +7211,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3B1AF0B-B26E-44AC-9440-7F89CA720F00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A107A23A-297F-41D9-AF31-B9386F40A99E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29B24681-240C-4063-A143-D7DF118E4903}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{28402D08-E87B-4AFF-9D13-97274092D6FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3326E0D3-33BD-4D8D-B65F-066C96F8D70E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4EFFB595-5601-46BF-AEAD-683862EB787D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7FF81C79-A925-44B6-9B24-E4E3D7349744}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{514AF45E-6B29-465A-A788-967B37BBAD5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{702E73A7-8FFC-4A6D-85B0-569722EEEC34}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DDCB402D-E349-4E79-8803-CDF3AD0E261B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CDF98A1E-5E6C-4B46-A138-034335698350}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6DFF609-685F-4E51-ADB9-53DD1E6EF025}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E3B7D27F-ECC0-4ED1-BEDA-42762657BFC0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C16B1E1B-7128-4058-81E8-92D2E3B035C2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{342C149C-FC11-4E67-B932-6A8695D4B160}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0132FBFC-8ED5-47AF-9B02-F59EA6A64518}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B88BAE25-8BFB-40B6-BBD6-5EC4A6202F30}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93B58AB2-5417-4AEA-AC50-9AE567213221}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95DE1328-D767-4BD9-8152-61DE48A14713}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{024EA864-1641-49BC-904E-F092E11B144F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{36B1AB6B-F12A-4BFF-BA11-C8641837964E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{407E9069-1BD9-46F1-9149-6AC668A230EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8A3889BA-3599-46B5-9FD5-87EE1A72483F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C8E651E-A82B-4BEF-BB72-7CFB0D7E9535}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7235,7 +7235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F70D22A-85CB-425B-8404-07ECABD5885A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9123C2-2EE9-407D-A5A0-85D3E1F31C15}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8432,18 +8432,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C97830DF-6935-486C-9822-4F4CDCB1D875}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FC121D1C-A1F8-4457-B6A8-5741B18A9693}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE8581D3-9EB3-4B56-9B38-4501333E8CB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F9E8419C-F0D6-4BCB-A026-4549EB3AD3BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A5B90486-FD72-4C6E-8D76-1411891849FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8D4AF13D-F987-4AD2-A35F-FB0F2875CBB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8FB69D46-2874-4E4E-A237-A89D97ED4ABD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{276466A8-A084-46AB-A692-332DCB8430E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F51E7916-5A85-4E55-B9F6-4C6033E5EEE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2D58646-412B-4EE1-88D2-1EDFE79C8078}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E4825954-C5BE-47B6-AA10-4B6D5E98EBE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0ED6EE98-DB4C-45C4-A32A-956EAC6CC204}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0E3F89C6-F5FC-4A75-8816-8B9B3989854C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{333937C7-AC15-4E2B-8078-F81AC02B9E14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{49A9EC8F-D506-4B67-987A-74ABC329F912}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43789BAF-1E0B-4D4B-A8B2-15EA024ED45D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C2F68624-1A4E-4899-ACD8-A185DFFBB36E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BCAFDE2-79FC-4D4D-92CC-8D43B4095917}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78A809B3-68FF-47F0-81B0-1595DD33562B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{46BF4B60-49B1-4DB1-B4A4-91D44D2AC260}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EC9AB565-BE1E-4FA3-B480-BA9126CADF08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E40405B6-3B22-4A47-B472-215CB74E2EAC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E86A0084-7D1B-4ADB-997F-5F51400BB950}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{264D4B75-124D-49A9-9FB9-20C70B4AA7E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8456,7 +8456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445B9702-6593-4697-8DAE-36B51EE2F182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E76AB8-7A4A-46BF-8C63-D62DF5DF77A7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9651,18 +9651,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD574EA4-0FF6-4104-AF5C-DF224DFC1617}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{744691AB-6FC5-465E-8567-19580CBA504B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2376F380-ADC2-4576-BAF5-365340A93128}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B862816-7130-449E-9A96-15E7D0CB5C0E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1649DD22-3850-4BED-9E70-CA79E3C7774A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A91649C-C77B-4DFD-A0EE-33B64F9BB38E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6D79303D-BFF0-4615-B08E-D9F958A2004B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{79452078-F8D7-49C3-8950-27F6A25F36CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BA1AB0C2-C2EA-4CBE-B076-B216BE76A0BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A32941DA-8A4B-440E-8F95-FF52F73BAAA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CAE79D00-B175-40ED-8DAA-027BE73FE1E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5FE3DDEF-E905-4F49-A76D-D7C01E53E8A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{483443EB-2168-4CD3-887B-E784E9438BF2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{56BBFAF0-E252-4A66-9E5D-DCBFFDEE2F27}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1CEC3DB1-6276-424A-954C-FBFD8CA0D3C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{734D2D26-2F85-4316-8F0A-34001005A72B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F8B8C454-B1A3-49B0-9D61-207BEE788074}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28879AEB-D1FB-4488-B5B7-8AD2FAF50764}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{89E84549-F467-4CD5-82B1-AFA0C1DDC6A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{800D7BD7-B185-461E-A5BD-5452230F02EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FC8A4D1C-D23D-42EE-B5A1-F29BCC481AAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8A26956D-AF84-42EE-9C64-218E17EB98BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B550559F-C83A-41A2-A025-BB7968D8BC5D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5B071812-79EF-4B5C-BEC0-05593A485F8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9675,7 +9675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A4493C-22DC-421D-8FF3-5C09E445432B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F4825-DBA5-43D2-B6D0-5D6E4B26EA0C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10858,18 +10858,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29BDDA24-D870-44B9-A8F8-62AD81AD1B62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3AB3D44F-8955-4B42-98EB-398323E99848}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{969CE3E1-7B26-4BA9-A94D-BE3ECAA8184C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5CE4A77-46F3-4AC1-9AFD-C9E2591EE748}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7FA64D8F-8124-44A5-AFB6-0840ACAFE080}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{92C59E0D-89CB-41DD-A310-15253FB61EF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C016F86E-4ADF-46D3-8611-63FDE16DD97D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{978D5AD8-0074-4D00-9521-1E25755829EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21FD8B1A-368D-4E23-9F50-75A15946FC99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{502331D8-12D4-41EA-B8E6-6797CCE0643E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55992491-A6B3-4062-B34B-456EDB1A0F92}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{392F5400-9577-48A1-8755-FC72C345383D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{083952C5-17BF-4406-A86F-E7CFC9230A61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0CA867D-9AAD-4B83-9B6F-AF64D2F75542}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{429F6B3D-6EC7-4156-91D5-AB9C72349E54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{007FFC4A-E061-445B-9C19-B7BC7103005A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{29C864F1-575B-409E-9738-8849D910F260}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B04A6AFB-20F6-4F18-8AE9-E7610B850C85}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BBB701B7-8C3D-4E42-B4EB-BD3621596BE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8D9C1E33-06DE-41F9-AD87-0CF15325D93C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76F204C4-B8C3-4A03-8A1C-95D4A29D8862}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4DAFAD04-0072-476F-A99D-77D6DBC1D252}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4ADD6B40-CB5F-4B10-A85E-C12C8BD2BF18}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A96FF090-E920-453F-96ED-D3F7100FBA5A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10882,7 +10882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEC016E-C176-42FC-9F6C-CD8567F62128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA41A60A-3768-492E-ADC0-2BE423459059}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12065,18 +12065,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7176C9CF-6CC1-4715-9A2A-EE5067BEC9AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20836D99-D58A-45A3-9EE7-6750EC0601E5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B287B058-0CBB-4AA7-B213-D140579F6A2E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC5207D1-3F32-4D82-BBBB-2EBA75650082}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA66FBC9-CBF6-41EA-898A-2FBE010A59E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7908F05B-5926-4BBE-A6C8-B30BBBEE7846}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6B531A12-31FF-43B7-B466-C9ED8A4DF83D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{594D727F-FA3E-4091-8969-6D2D3A92CB1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{336E1895-8900-4111-81ED-DEAB725954DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{31EAFF21-CAD8-4874-BAE6-E122F323186A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2790C67-FB56-42AA-9E7C-EE3A762DB6C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C42F42BA-D727-4069-B45F-1DFC5E944C15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54349DCD-C848-45ED-980D-021E2EC69B66}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{981F2EDA-BAA9-409D-937C-67179E1FD779}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C8100AE3-EC8A-475F-BB4E-ACEC5449B389}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{492862ED-5EA6-42E6-92F0-027F04F59041}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F31BF74-8C27-4C99-BB81-FA916C35655B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FF0BC344-F922-4846-A626-CC93495DE9F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{36C8FF77-2B61-49E9-97DC-4AFDAEA727FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E2F5604F-762C-49C3-8987-120401450E51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CA3CA4B-B94C-42FD-A59B-672F0B15FFCF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{588CD2FF-A5F3-482B-981B-0E0D76AC8644}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F022362-73B0-4C78-8756-5CFD03D1ABA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7FC29528-4816-42AA-9224-4478345F40C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12089,7 +12089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60302A67-DE82-44E5-A702-2BD89DD55E10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13955CDA-F2D3-4983-A401-0FEBF68F7B0B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13264,18 +13264,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{30DF5EC1-98C3-49E3-99A3-EA6CAF72A0CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0C9C2242-D689-4359-B4D9-BA1376800A46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6374390D-857F-4055-8D72-8816EDE2E959}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D65D85C5-DAD8-4BB5-820D-C9132DFA3DD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{23E31F90-A377-40E6-BB85-C1C590B035F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D607646F-CA24-46A6-9F97-96276FF5E709}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6CE77645-BDFD-4475-A56F-3504C399B0F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56FE8BCD-3BCF-430C-BFBF-532729D4C45D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E84C2869-0D91-4263-9AE0-0B3C8D38E41F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5C52B5B0-ABF5-4A9E-8708-1A75415B2585}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C1F38147-0CCC-44CB-B802-D95CFA6AB590}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B745A77-8837-454B-877B-7E34897A8398}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{85D41BD2-5C2E-4CAE-A0DA-DD480EABDD45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3516FDC-E37F-4D7F-A65B-C14787B41489}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D9A6C0F1-42D8-4840-852C-004307897B93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A7A543D8-8CD0-488C-9E51-19C61708B823}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{67CEAA0F-D5A7-4F53-B7D5-BAA8F3D33E29}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9857C291-46BF-4814-BFAA-4D2261465E3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2C734433-FE8F-4AEE-859A-8803C68BF995}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D34FC8EA-EA8E-4A9C-BF27-A98E7FFE8BF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{98E42192-2CF8-45AE-B2C5-0A571D2DA9A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{97A6B9C1-8A4B-498F-9155-3305F9555E92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13F62A0D-34BD-4CD2-91ED-A317A324BC82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6B5623EE-D5D7-4C69-BBC6-E1859C6AD7C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13288,7 +13288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32919E61-F5E5-42A9-BECF-B64E6CC38408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367F0980-2B11-4B1C-B2D6-0D56AF0E3F98}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14463,18 +14463,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9B75A1A-99EE-4932-A4DB-77DF3AB93F4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{720408B1-13EC-4053-B92F-67311638F327}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8E23044D-F19B-4434-A06F-89BB923675A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4BC535DC-377F-429A-8706-A12260395513}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA0494A4-4F41-4C41-8EED-FDF268F1517C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{509EE37B-07E2-4F69-974B-C8E574C2B8B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1CD7BA23-E2BB-41D1-88F0-643865BDD0D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{597D404A-503F-43D4-AD6C-609027A8778B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AD45559B-392E-4F8C-AA09-1B935154A800}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BF1CAC6F-D684-41F9-B40A-2EE963AF283A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8E3F0AB-337C-4BA8-B515-07FDBFFBBE96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C12DC853-77C9-4843-A2D0-0CE336178A8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C8DCB68-6939-44D3-8FF8-EC5526848EAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BED89274-D622-45D3-B50D-67D52517A301}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{33E856AB-C442-40B7-BCBA-74FF746F6CAB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73F8F205-6832-4554-A3D5-A9DA1617334E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EBC1FAF5-A6AF-4B65-9C66-CAB099A477C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{545BFE33-92F5-48DD-8654-8253A9427331}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12CD7DA8-FEEA-47D0-A805-4667C1234912}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5DD8B00B-3215-4D96-9334-00A30A58ABDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{86AD2F9D-CB97-4BA7-A536-3C1B0F88ABC2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D8030F0A-D6D8-4AD6-B316-A2318A705A65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7E45B83C-0464-4FA5-9290-A0950AE726AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E72DC33F-FA58-4917-8FE4-0E75D1E76917}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14487,7 +14487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38183A4E-F539-4F75-9E00-BE42E4F7DE52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C1DF35-5CCE-4C31-B1B2-32E29070924B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15662,18 +15662,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3FB9688-FD53-4A21-B40D-E5BD1436D092}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A5C6FBB7-26D3-426E-A803-F327D3A0731D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4429121D-181F-4F9E-8D65-A9AFDF86C25D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6364C68F-609E-4CEF-8FF1-21EA6F500F51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E42035CB-E085-4E11-AAD3-CDD166CA4333}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FC3730EC-F642-4C22-AB94-9AB9FDAC6EB6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C71F2C3D-EE00-41EA-A133-424E6373BA38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDF4A365-2E56-467D-9954-65D891D1710C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8CB4180C-489B-4D56-9996-0081E54ECBC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{16BE7A1B-B47D-403C-A48E-D76A6C269968}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E09ED56-CDC2-45D8-A7F7-9C45BBABD013}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{97B95E93-9721-459E-8506-061A3D715FF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{24BBAC98-C9E8-418C-82AB-34996D6FFBDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CAE8D864-5B80-408A-B0D8-DD7D8957F8AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{08296ECB-1A52-489C-83EF-12F38378A556}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F8F5E758-2AF1-4DAA-99C7-9437C813B055}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{36886E63-6257-4CA5-BD66-C111617432AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9BAE84D4-417D-4BD6-9CC5-13502D8A24C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F67B89A0-C242-4411-BE11-08002642700E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{618127AA-6E41-4081-AC67-7C384DB0204B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D5BDE5F1-A41B-4C7B-9D1F-475948A8C97D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98962216-AD21-4200-AC33-81913EEA5B65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{386FB2BC-C525-4272-8150-2E445248FA56}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E372CC14-9C0B-4DA7-83A7-56423D0D3B9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
